--- a/database/data/data-prediksi/processedData-prediksi.xlsx
+++ b/database/data/data-prediksi/processedData-prediksi.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,90 +582,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Accrington</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Tranmere</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.52</v>
+        <v>2.5</v>
       </c>
       <c r="F2" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>7.5</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>1.45</v>
+        <v>2.43</v>
       </c>
       <c r="I2" t="n">
-        <v>4.93</v>
+        <v>3.33</v>
       </c>
       <c r="J2" t="n">
-        <v>6.78</v>
+        <v>2.76</v>
       </c>
       <c r="K2" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="M2" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="N2" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U2" t="n">
-        <v>2.375</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="V2" t="n">
-        <v>1.733333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="W2" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -676,54 +676,54 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.59</v>
+        <v>2.63</v>
       </c>
       <c r="F3" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="G3" t="n">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.54</v>
+        <v>2.61</v>
       </c>
       <c r="I3" t="n">
-        <v>4.05</v>
+        <v>3.26</v>
       </c>
       <c r="J3" t="n">
-        <v>5.75</v>
+        <v>2.68</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="M3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.91</v>
       </c>
-      <c r="N3" t="n">
-        <v>1.89</v>
-      </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -732,34 +732,34 @@
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
       </c>
       <c r="T3" t="n">
+        <v>5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
         <v>7</v>
       </c>
-      <c r="U3" t="n">
-        <v>1.8125</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>32</v>
-      </c>
-      <c r="X3" t="n">
-        <v>29</v>
-      </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
         <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -770,90 +770,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bradford</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.44</v>
+        <v>3.95</v>
       </c>
       <c r="F4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.37</v>
+        <v>3.72</v>
       </c>
       <c r="I4" t="n">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94</v>
+        <v>1.94</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="L4" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="M4" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="N4" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="n">
         <v>6</v>
       </c>
-      <c r="T4" t="n">
-        <v>9</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.238095238095238</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="V4" t="n">
-        <v>1.363636363636364</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="W4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -864,84 +864,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Bradford</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="F5" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.36</v>
       </c>
       <c r="J5" t="n">
-        <v>3.17</v>
+        <v>3.28</v>
       </c>
       <c r="K5" t="n">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="L5" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="M5" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="N5" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>1.125</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="V5" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
         <v>3</v>
@@ -958,84 +958,84 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>3.88</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>5.64</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="I6" t="n">
-        <v>3.57</v>
+        <v>3.27</v>
       </c>
       <c r="J6" t="n">
-        <v>4.92</v>
+        <v>3.68</v>
       </c>
       <c r="K6" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="M6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="n">
         <v>7</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
         <v>6</v>
       </c>
-      <c r="U6" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.1875</v>
-      </c>
-      <c r="W6" t="n">
-        <v>26</v>
-      </c>
-      <c r="X6" t="n">
-        <v>26</v>
-      </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
         <v>3</v>
@@ -1056,83 +1056,83 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.42</v>
+        <v>3.3</v>
       </c>
       <c r="F7" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.29</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="J7" t="n">
-        <v>3.14</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="N7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W7" t="n">
         <v>5</v>
       </c>
-      <c r="T7" t="n">
-        <v>13</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.1875</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="W7" t="n">
-        <v>27</v>
-      </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA7" t="n">
         <v>3</v>
@@ -1146,90 +1146,90 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.2</v>
       </c>
-      <c r="F8" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.16</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.41</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="N8" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9545454545454546</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="V8" t="n">
-        <v>1.272727272727273</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1240,87 +1240,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Peterboro</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.16</v>
+        <v>2.43</v>
       </c>
       <c r="F9" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.04</v>
+        <v>2.34</v>
       </c>
       <c r="I9" t="n">
-        <v>3.89</v>
+        <v>2.96</v>
       </c>
       <c r="J9" t="n">
-        <v>2.08</v>
+        <v>3.13</v>
       </c>
       <c r="K9" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="N9" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
         <v>8</v>
       </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.545454545454545</v>
-      </c>
-      <c r="W9" t="n">
-        <v>22</v>
-      </c>
-      <c r="X9" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>36</v>
-      </c>
       <c r="Z9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="n">
         <v>3</v>
@@ -1334,84 +1334,84 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Colchester</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doncaster</t>
+          <t>Virtus Entella</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.41</v>
+        <v>2.3</v>
       </c>
       <c r="F10" t="n">
-        <v>3.72</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.24</v>
+        <v>2.19</v>
       </c>
       <c r="I10" t="n">
-        <v>3.54</v>
+        <v>3.07</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>3.28</v>
       </c>
       <c r="K10" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="L10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="N10" t="n">
         <v>1.87</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.83</v>
-      </c>
       <c r="O10" t="n">
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
         <v>7</v>
       </c>
       <c r="T10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.523809523809524</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.380952380952381</v>
+        <v>0.5</v>
       </c>
       <c r="W10" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
         <v>3</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1441,77 +1441,77 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.92</v>
+        <v>2.95</v>
       </c>
       <c r="F11" t="n">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="G11" t="n">
-        <v>2.09</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
-        <v>3.66</v>
+        <v>2.85</v>
       </c>
       <c r="I11" t="n">
-        <v>3.29</v>
+        <v>3.23</v>
       </c>
       <c r="J11" t="n">
-        <v>2.02</v>
+        <v>2.37</v>
       </c>
       <c r="K11" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="N11" t="n">
-        <v>2.01</v>
+        <v>1.71</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U11" t="n">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1875</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1526,86 +1526,86 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.34</v>
+        <v>2.85</v>
       </c>
       <c r="F12" t="n">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="K12" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="M12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="N12" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
-        <v>1.3125</v>
+        <v>0.6</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1616,54 +1616,54 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.16</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>2.09</v>
+        <v>6.71</v>
       </c>
       <c r="I13" t="n">
-        <v>3.83</v>
+        <v>3.81</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>1.54</v>
       </c>
       <c r="K13" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="L13" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="N13" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -1675,25 +1675,25 @@
         <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.476190476190476</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="Z13" t="n">
         <v>3</v>
@@ -1710,90 +1710,90 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="F14" t="n">
-        <v>3.24</v>
+        <v>3.65</v>
       </c>
       <c r="G14" t="n">
-        <v>3.87</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.16</v>
+        <v>2.09</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>3.49</v>
       </c>
       <c r="J14" t="n">
-        <v>3.59</v>
+        <v>3.27</v>
       </c>
       <c r="K14" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="L14" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="M14" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="N14" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="n">
+        <v>9</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>11</v>
+      </c>
+      <c r="X14" t="n">
         <v>6</v>
       </c>
-      <c r="T14" t="n">
-        <v>4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="W14" t="n">
-        <v>15</v>
-      </c>
-      <c r="X14" t="n">
-        <v>21</v>
-      </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
         <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -1808,86 +1808,86 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="G15" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="J15" t="n">
-        <v>2.9</v>
+        <v>3.02</v>
       </c>
       <c r="K15" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="M15" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
       <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
         <v>0</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="n">
         <v>10</v>
       </c>
-      <c r="T15" t="n">
-        <v>8</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.9375</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.1875</v>
-      </c>
-      <c r="W15" t="n">
-        <v>30</v>
-      </c>
-      <c r="X15" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>29</v>
-      </c>
       <c r="Z15" t="n">
         <v>3</v>
       </c>
       <c r="AA15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -1898,84 +1898,84 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>St Truiden</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.88</v>
+        <v>2.3</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="G16" t="n">
-        <v>1.94</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.69</v>
+        <v>2.21</v>
       </c>
       <c r="I16" t="n">
-        <v>3.83</v>
+        <v>3.08</v>
       </c>
       <c r="J16" t="n">
-        <v>1.89</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L16" t="n">
         <v>1.94</v>
       </c>
       <c r="M16" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="N16" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="O16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
         <v>9</v>
       </c>
-      <c r="T16" t="n">
-        <v>9</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.352941176470588</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.352941176470588</v>
-      </c>
-      <c r="W16" t="n">
-        <v>32</v>
-      </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="Y16" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Z16" t="n">
         <v>3</v>
@@ -1992,84 +1992,84 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Avellino</t>
         </is>
       </c>
       <c r="E17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.5</v>
       </c>
-      <c r="F17" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.92</v>
-      </c>
       <c r="H17" t="n">
-        <v>2.43</v>
+        <v>2.86</v>
       </c>
       <c r="I17" t="n">
-        <v>3.42</v>
+        <v>3.06</v>
       </c>
       <c r="J17" t="n">
-        <v>2.79</v>
+        <v>2.44</v>
       </c>
       <c r="K17" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="N17" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T17" t="n">
+        <v>7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="n">
         <v>8</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.235294117647059</v>
-      </c>
-      <c r="W17" t="n">
-        <v>24</v>
-      </c>
-      <c r="X17" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>32</v>
       </c>
       <c r="Z17" t="n">
         <v>3</v>
@@ -2086,90 +2086,90 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pau FC</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.46</v>
+        <v>4.5</v>
       </c>
       <c r="F18" t="n">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>3.07</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
-        <v>2.36</v>
+        <v>4.13</v>
       </c>
       <c r="I18" t="n">
-        <v>3.29</v>
+        <v>3.24</v>
       </c>
       <c r="J18" t="n">
-        <v>2.92</v>
+        <v>1.86</v>
       </c>
       <c r="K18" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="L18" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="M18" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="N18" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>9</v>
       </c>
       <c r="T18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U18" t="n">
-        <v>1.5625</v>
+        <v>2.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4375</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Z18" t="n">
         <v>3</v>
       </c>
       <c r="AA18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2184,80 +2184,80 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="F19" t="n">
-        <v>3.04</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.03</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>4.83</v>
+        <v>2.17</v>
       </c>
       <c r="I19" t="n">
-        <v>2.93</v>
+        <v>3.22</v>
       </c>
       <c r="J19" t="n">
-        <v>1.92</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="L19" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="M19" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="N19" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U19" t="n">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5625</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
+        <v>6</v>
+      </c>
+      <c r="X19" t="n">
         <v>9</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>10</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>29</v>
       </c>
       <c r="Z19" t="n">
         <v>3</v>
@@ -2274,90 +2274,90 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45405</v>
+        <v>45958</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Oud-Heverlee Leuven</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.54</v>
+        <v>1.73</v>
       </c>
       <c r="F20" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="G20" t="n">
-        <v>2.77</v>
+        <v>4.75</v>
       </c>
       <c r="H20" t="n">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="I20" t="n">
-        <v>3.54</v>
+        <v>3.84</v>
       </c>
       <c r="J20" t="n">
-        <v>2.71</v>
+        <v>4.43</v>
       </c>
       <c r="K20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="L20" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="M20" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="N20" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U20" t="n">
-        <v>1.411764705882353</v>
+        <v>2.4</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9375</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
         <v>3</v>
       </c>
       <c r="AA20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2368,87 +2368,87 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45406</v>
+        <v>45958</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AEK</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.98</v>
+        <v>1.47</v>
       </c>
       <c r="F21" t="n">
-        <v>3.65</v>
+        <v>4.75</v>
       </c>
       <c r="G21" t="n">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.89</v>
+        <v>1.43</v>
       </c>
       <c r="I21" t="n">
-        <v>3.46</v>
+        <v>4.39</v>
       </c>
       <c r="J21" t="n">
-        <v>3.94</v>
+        <v>6.44</v>
       </c>
       <c r="K21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="M21" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="N21" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U21" t="n">
-        <v>2.3125</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="X21" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA21" t="n">
         <v>3</v>
@@ -2462,90 +2462,90 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.33</v>
+        <v>1.81</v>
       </c>
       <c r="F22" t="n">
-        <v>6.5</v>
+        <v>3.55</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>1.28</v>
+        <v>1.77</v>
       </c>
       <c r="I22" t="n">
-        <v>5.92</v>
+        <v>3.45</v>
       </c>
       <c r="J22" t="n">
-        <v>9.25</v>
+        <v>4.86</v>
       </c>
       <c r="K22" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="L22" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="M22" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="N22" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T22" t="n">
         <v>5</v>
       </c>
       <c r="U22" t="n">
-        <v>2.266666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="V22" t="n">
-        <v>1.466666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Y22" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA22" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -2556,90 +2556,90 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>SC0</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.98</v>
+        <v>1.18</v>
       </c>
       <c r="F23" t="n">
-        <v>3.81</v>
+        <v>8.5</v>
       </c>
       <c r="G23" t="n">
-        <v>3.98</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>1.93</v>
+        <v>1.15</v>
       </c>
       <c r="I23" t="n">
-        <v>3.61</v>
+        <v>7.66</v>
       </c>
       <c r="J23" t="n">
-        <v>3.73</v>
+        <v>14.47</v>
       </c>
       <c r="K23" t="n">
         <v>1.98</v>
       </c>
       <c r="L23" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="M23" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="N23" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.941176470588235</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.235294117647059</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Y23" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -2650,87 +2650,87 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W24" t="n">
         <v>8</v>
       </c>
-      <c r="F24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H24" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>9</v>
-      </c>
-      <c r="T24" t="n">
-        <v>11</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W24" t="n">
-        <v>30</v>
-      </c>
       <c r="X24" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA24" t="n">
         <v>3</v>
@@ -2744,84 +2744,84 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="F25" t="n">
-        <v>4.01</v>
+        <v>3.4</v>
       </c>
       <c r="G25" t="n">
-        <v>4.41</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="I25" t="n">
-        <v>3.85</v>
+        <v>3.28</v>
       </c>
       <c r="J25" t="n">
-        <v>4.12</v>
+        <v>4.72</v>
       </c>
       <c r="K25" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="L25" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="N25" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="O25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>4</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" t="n">
         <v>5</v>
       </c>
-      <c r="U25" t="n">
-        <v>2.411764705882353</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>36</v>
-      </c>
-      <c r="X25" t="n">
-        <v>26</v>
-      </c>
       <c r="Y25" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Z25" t="n">
         <v>3</v>
@@ -2838,90 +2838,90 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>SC0</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hull</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
-        <v>2.24</v>
+        <v>2.82</v>
       </c>
       <c r="I26" t="n">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="L26" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="M26" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="N26" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
       </c>
       <c r="T26" t="n">
+        <v>5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W26" t="n">
         <v>6</v>
       </c>
-      <c r="U26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.428571428571429</v>
-      </c>
-      <c r="W26" t="n">
-        <v>35</v>
-      </c>
       <c r="X26" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="Y26" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -2932,90 +2932,90 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.85</v>
+        <v>1.4</v>
       </c>
       <c r="F27" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>2.51</v>
+        <v>8.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.76</v>
+        <v>1.38</v>
       </c>
       <c r="I27" t="n">
-        <v>3.68</v>
+        <v>4.77</v>
       </c>
       <c r="J27" t="n">
-        <v>2.43</v>
+        <v>8.1</v>
       </c>
       <c r="K27" t="n">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="L27" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="N27" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
         <v>12</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.625</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
-        <v>1.733333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="W27" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="X27" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Y27" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA27" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -3026,60 +3026,60 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.7</v>
+        <v>1.48</v>
       </c>
       <c r="F28" t="n">
-        <v>5.33</v>
+        <v>4.6</v>
       </c>
       <c r="G28" t="n">
-        <v>1.47</v>
+        <v>8.5</v>
       </c>
       <c r="H28" t="n">
-        <v>7.11</v>
+        <v>1.44</v>
       </c>
       <c r="I28" t="n">
-        <v>4.98</v>
+        <v>4.32</v>
       </c>
       <c r="J28" t="n">
-        <v>1.42</v>
+        <v>7.42</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="M28" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O28" t="n">
         <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
         <v>1</v>
@@ -3088,28 +3088,28 @@
         <v>7</v>
       </c>
       <c r="T28" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.125</v>
+        <v>1.75</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="Z28" t="n">
         <v>3</v>
       </c>
       <c r="AA28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -3120,84 +3120,84 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>SC0</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lamia</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>2.85</v>
       </c>
       <c r="F29" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="G29" t="n">
-        <v>1.22</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
-        <v>13.88</v>
+        <v>2.73</v>
       </c>
       <c r="I29" t="n">
-        <v>6.69</v>
+        <v>3.33</v>
       </c>
       <c r="J29" t="n">
-        <v>1.18</v>
+        <v>2.48</v>
       </c>
       <c r="K29" t="n">
-        <v>2.13</v>
+        <v>1.98</v>
       </c>
       <c r="L29" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M29" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="N29" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
         <v>5</v>
       </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2</v>
-      </c>
       <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y29" t="n">
         <v>10</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W29" t="n">
-        <v>20</v>
-      </c>
-      <c r="X29" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>28</v>
       </c>
       <c r="Z29" t="n">
         <v>3</v>
@@ -3218,86 +3218,86 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Paris SG</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="F30" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="G30" t="n">
-        <v>1.43</v>
+        <v>2.9</v>
       </c>
       <c r="H30" t="n">
-        <v>7.45</v>
+        <v>2.51</v>
       </c>
       <c r="I30" t="n">
-        <v>5.29</v>
+        <v>3.29</v>
       </c>
       <c r="J30" t="n">
-        <v>1.38</v>
+        <v>2.76</v>
       </c>
       <c r="K30" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L30" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="M30" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="N30" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="O30" t="n">
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
+        <v>7</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W30" t="n">
         <v>5</v>
       </c>
-      <c r="T30" t="n">
-        <v>12</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.357142857142857</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.214285714285714</v>
-      </c>
-      <c r="W30" t="n">
-        <v>13</v>
-      </c>
       <c r="X30" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3308,51 +3308,51 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Man United</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Paris SG</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.35</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
         <v>6.5</v>
       </c>
       <c r="G31" t="n">
-        <v>9.5</v>
+        <v>1.26</v>
       </c>
       <c r="H31" t="n">
-        <v>1.31</v>
+        <v>10.17</v>
       </c>
       <c r="I31" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="J31" t="n">
-        <v>8.44</v>
+        <v>1.25</v>
       </c>
       <c r="K31" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="L31" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="M31" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="N31" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="O31" t="n">
         <v>2</v>
@@ -3361,34 +3361,34 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
+        <v>11</v>
+      </c>
+      <c r="T31" t="n">
+        <v>11</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7</v>
+      </c>
+      <c r="X31" t="n">
         <v>10</v>
       </c>
-      <c r="T31" t="n">
-        <v>6</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.533333333333333</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="W31" t="n">
-        <v>26</v>
-      </c>
-      <c r="X31" t="n">
-        <v>6</v>
-      </c>
       <c r="Y31" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AA31" t="n">
         <v>4</v>
@@ -3402,90 +3402,90 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="F32" t="n">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="G32" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="H32" t="n">
-        <v>2.23</v>
+        <v>2.52</v>
       </c>
       <c r="I32" t="n">
-        <v>3.42</v>
+        <v>3.23</v>
       </c>
       <c r="J32" t="n">
-        <v>3.27</v>
+        <v>2.64</v>
       </c>
       <c r="K32" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="L32" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="M32" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="N32" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
-        <v>1.714285714285714</v>
+        <v>1.25</v>
       </c>
       <c r="V32" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="W32" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="X32" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Y32" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Z32" t="n">
         <v>3</v>
       </c>
       <c r="AA32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
@@ -3500,83 +3500,83 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.34</v>
+        <v>1.25</v>
       </c>
       <c r="F33" t="n">
-        <v>3.81</v>
+        <v>6.5</v>
       </c>
       <c r="G33" t="n">
-        <v>3.15</v>
+        <v>15</v>
       </c>
       <c r="H33" t="n">
-        <v>2.28</v>
+        <v>1.22</v>
       </c>
       <c r="I33" t="n">
-        <v>3.59</v>
+        <v>6.13</v>
       </c>
       <c r="J33" t="n">
-        <v>3.03</v>
+        <v>12.53</v>
       </c>
       <c r="K33" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="L33" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="M33" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="N33" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="W33" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Z33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA33" t="n">
         <v>3</v>
@@ -3590,90 +3590,90 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="F34" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="G34" t="n">
-        <v>13</v>
+        <v>1.52</v>
       </c>
       <c r="H34" t="n">
-        <v>1.28</v>
+        <v>6.06</v>
       </c>
       <c r="I34" t="n">
-        <v>5.52</v>
+        <v>4.4</v>
       </c>
       <c r="J34" t="n">
-        <v>10.88</v>
+        <v>1.49</v>
       </c>
       <c r="K34" t="n">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="L34" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="M34" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="N34" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="O34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="V34" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Y34" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA34" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
@@ -3684,90 +3684,90 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>SC0</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45406</v>
+        <v>45959</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Dundee United</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.81</v>
+        <v>2.15</v>
       </c>
       <c r="F35" t="n">
         <v>3.8</v>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H35" t="n">
-        <v>2.72</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="J35" t="n">
-        <v>2.52</v>
+        <v>3.38</v>
       </c>
       <c r="K35" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="L35" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="M35" t="n">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U35" t="n">
-        <v>1.4375</v>
+        <v>1.5</v>
       </c>
       <c r="V35" t="n">
-        <v>1.5625</v>
+        <v>2.25</v>
       </c>
       <c r="W35" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="X35" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Y35" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Z35" t="n">
         <v>4</v>
       </c>
       <c r="AA35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
@@ -3778,87 +3778,87 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45407</v>
+        <v>45959</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>St. Gilloise</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.04</v>
+        <v>5.1</v>
       </c>
       <c r="F36" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.44</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
-        <v>2.87</v>
+        <v>4.78</v>
       </c>
       <c r="I36" t="n">
-        <v>3.35</v>
+        <v>3.98</v>
       </c>
       <c r="J36" t="n">
-        <v>2.38</v>
+        <v>1.66</v>
       </c>
       <c r="K36" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="L36" t="n">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="M36" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="N36" t="n">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
         <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U36" t="n">
-        <v>2.125</v>
+        <v>0.75</v>
       </c>
       <c r="V36" t="n">
-        <v>1.764705882352941</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="X36" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="Y36" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="Z36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA36" t="n">
         <v>4</v>
@@ -3872,90 +3872,90 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45407</v>
+        <v>45959</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>7.1</v>
+        <v>3.1</v>
       </c>
       <c r="F37" t="n">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="G37" t="n">
-        <v>1.48</v>
+        <v>2.38</v>
       </c>
       <c r="H37" t="n">
-        <v>6.65</v>
+        <v>2.91</v>
       </c>
       <c r="I37" t="n">
-        <v>4.95</v>
+        <v>3.46</v>
       </c>
       <c r="J37" t="n">
-        <v>1.44</v>
+        <v>2.32</v>
       </c>
       <c r="K37" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M37" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="N37" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T37" t="n">
         <v>12</v>
       </c>
       <c r="U37" t="n">
-        <v>1.866666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="V37" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="W37" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Y37" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AA37" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
@@ -3966,90 +3966,90 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45407</v>
+        <v>45959</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.3</v>
+        <v>2.75</v>
       </c>
       <c r="F38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>8</v>
+      </c>
+      <c r="T38" t="n">
         <v>5</v>
       </c>
-      <c r="G38" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="H38" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M38" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W38" t="n">
         <v>6</v>
       </c>
-      <c r="T38" t="n">
-        <v>8</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="W38" t="n">
-        <v>25</v>
-      </c>
       <c r="X38" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="Y38" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Z38" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AA38" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
@@ -4060,92 +4060,750 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45407</v>
+        <v>45959</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>1.53</v>
       </c>
       <c r="F39" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="G39" t="n">
-        <v>1.39</v>
+        <v>7.5</v>
       </c>
       <c r="H39" t="n">
-        <v>7.22</v>
+        <v>1.5</v>
       </c>
       <c r="I39" t="n">
-        <v>5.37</v>
+        <v>4.04</v>
       </c>
       <c r="J39" t="n">
-        <v>1.36</v>
+        <v>6.86</v>
       </c>
       <c r="K39" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="L39" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="M39" t="n">
         <v>1.85</v>
       </c>
       <c r="N39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>6</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>4</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SC0</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>St Mirren</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>10</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>8</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W42" t="n">
+        <v>9</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>11</v>
+      </c>
+      <c r="T43" t="n">
+        <v>5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W43" t="n">
+        <v>7</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>8</v>
+      </c>
+      <c r="T44" t="n">
+        <v>5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W44" t="n">
+        <v>9</v>
+      </c>
+      <c r="X44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>I1</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N45" t="n">
         <v>1.96</v>
       </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" t="n">
-        <v>9</v>
-      </c>
-      <c r="T39" t="n">
-        <v>16</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.933333333333333</v>
-      </c>
-      <c r="V39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W39" t="n">
-        <v>21</v>
-      </c>
-      <c r="X39" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB39" t="inlineStr">
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>4</v>
+      </c>
+      <c r="X45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>I1</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2</v>
+      </c>
+      <c r="X46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
